--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Areg</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.527084838199864</v>
+        <v>1.277672333333333</v>
       </c>
       <c r="H2">
-        <v>0.527084838199864</v>
+        <v>3.833017</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7545320937513288</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7545320937513288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>0.6630290946989569</v>
+        <v>3.451445268339333</v>
       </c>
       <c r="R2">
-        <v>0.6630290946989569</v>
+        <v>31.063007415054</v>
       </c>
       <c r="S2">
-        <v>0.01057819781394336</v>
+        <v>0.01675874114267053</v>
       </c>
       <c r="T2">
-        <v>0.01057819781394336</v>
+        <v>0.01675874114267053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.527084838199864</v>
+        <v>1.277672333333333</v>
       </c>
       <c r="H3">
-        <v>0.527084838199864</v>
+        <v>3.833017</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7545320937513288</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7545320937513288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>45.8486220625233</v>
+        <v>112.6265419096724</v>
       </c>
       <c r="R3">
-        <v>45.8486220625233</v>
+        <v>1013.638877187052</v>
       </c>
       <c r="S3">
-        <v>0.7314849341480372</v>
+        <v>0.5468662878627933</v>
       </c>
       <c r="T3">
-        <v>0.7314849341480372</v>
+        <v>0.5468662878627935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.527084838199864</v>
+        <v>1.277672333333333</v>
       </c>
       <c r="H4">
-        <v>0.527084838199864</v>
+        <v>3.833017</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7545320937513288</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7545320937513288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>0.1194794068121021</v>
+        <v>0.30744629357</v>
       </c>
       <c r="R4">
-        <v>0.1194794068121021</v>
+        <v>2.76701664213</v>
       </c>
       <c r="S4">
-        <v>0.001906216197834999</v>
+        <v>0.001492827626871861</v>
       </c>
       <c r="T4">
-        <v>0.001906216197834999</v>
+        <v>0.001492827626871861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.277672333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.833017</v>
+      </c>
+      <c r="I5">
+        <v>0.7545320937513288</v>
+      </c>
+      <c r="J5">
+        <v>0.7545320937513288</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>30.53182233333333</v>
+      </c>
+      <c r="N5">
+        <v>91.595467</v>
+      </c>
+      <c r="O5">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="P5">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="Q5">
+        <v>39.00966468154878</v>
+      </c>
+      <c r="R5">
+        <v>351.086982133939</v>
+      </c>
+      <c r="S5">
+        <v>0.189414237118993</v>
+      </c>
+      <c r="T5">
+        <v>0.189414237118993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4156583333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.246975</v>
+      </c>
+      <c r="I6">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="J6">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.701354</v>
+      </c>
+      <c r="N6">
+        <v>8.104061999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="P6">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="Q6">
+        <v>1.122840301383333</v>
+      </c>
+      <c r="R6">
+        <v>10.10556271245</v>
+      </c>
+      <c r="S6">
+        <v>0.005452031972824953</v>
+      </c>
+      <c r="T6">
+        <v>0.005452031972824953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.527084838199864</v>
-      </c>
-      <c r="H5">
-        <v>0.527084838199864</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>30.4461470300391</v>
-      </c>
-      <c r="N5">
-        <v>30.4461470300391</v>
-      </c>
-      <c r="O5">
-        <v>0.2560306518401845</v>
-      </c>
-      <c r="P5">
-        <v>0.2560306518401845</v>
-      </c>
-      <c r="Q5">
-        <v>16.04770248113743</v>
-      </c>
-      <c r="R5">
-        <v>16.04770248113743</v>
-      </c>
-      <c r="S5">
-        <v>0.2560306518401845</v>
-      </c>
-      <c r="T5">
-        <v>0.2560306518401845</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4156583333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.246975</v>
+      </c>
+      <c r="I7">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="J7">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>88.14978533333333</v>
+      </c>
+      <c r="N7">
+        <v>264.449356</v>
+      </c>
+      <c r="O7">
+        <v>0.7247753838328104</v>
+      </c>
+      <c r="P7">
+        <v>0.7247753838328105</v>
+      </c>
+      <c r="Q7">
+        <v>36.64019285534444</v>
+      </c>
+      <c r="R7">
+        <v>329.7617356980999</v>
+      </c>
+      <c r="S7">
+        <v>0.177909095970017</v>
+      </c>
+      <c r="T7">
+        <v>0.1779090959700171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4156583333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.246975</v>
+      </c>
+      <c r="I8">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="J8">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.24063</v>
+      </c>
+      <c r="N8">
+        <v>0.72189</v>
+      </c>
+      <c r="O8">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="P8">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="Q8">
+        <v>0.10001986475</v>
+      </c>
+      <c r="R8">
+        <v>0.90017878275</v>
+      </c>
+      <c r="S8">
+        <v>0.0004856536587285001</v>
+      </c>
+      <c r="T8">
+        <v>0.0004856536587285001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4156583333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.246975</v>
+      </c>
+      <c r="I9">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="J9">
+        <v>0.2454679062486713</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.53182233333333</v>
+      </c>
+      <c r="N9">
+        <v>91.595467</v>
+      </c>
+      <c r="O9">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="P9">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="Q9">
+        <v>12.69080638470278</v>
+      </c>
+      <c r="R9">
+        <v>114.217257462325</v>
+      </c>
+      <c r="S9">
+        <v>0.06162112464710079</v>
+      </c>
+      <c r="T9">
+        <v>0.06162112464710079</v>
       </c>
     </row>
   </sheetData>
